--- a/trend_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
+++ b/trend_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.562240476291417</v>
+        <v>0.437759523708583</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.806235004735648</v>
+        <v>0.193764995264352</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.926372038008125</v>
+        <v>0.073627961991875</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.996481904667415</v>
+        <v>0.0035180953325849</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.889664319040077</v>
+        <v>8.65676907025576e-06</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.373</v>
+        <v>95</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0187550556921351</v>
+        <v>9.361306386258409</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0235280875176719</v>
+        <v>5.65318729768544</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0315314629258994</v>
+        <v>13.6773153743584</v>
       </c>
       <c r="N30" t="n">
-        <v>5.02816506491559</v>
+        <v>9.85400672237728</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.59675202974633</v>
+        <v>0.034642304360744</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="H31" t="n">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>105</v>
+        <v>0.4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.28199504442926</v>
+        <v>-0.0099482590746222</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.8503109168864</v>
+        <v>-0.0185409363442969</v>
       </c>
       <c r="M31" t="n">
-        <v>5.88649100298156</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.2209476613612</v>
+        <v>-2.48706476865556</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.40324797025367</v>
+        <v>0.017382850560164</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.29</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0612040949481139</v>
+        <v>-0.0279885057471265</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.711212007667646</v>
+        <v>-0.0552970425121417</v>
       </c>
       <c r="M32" t="n">
-        <v>0.269124541678017</v>
+        <v>-0.0096743312718075</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.42666887990942</v>
+        <v>-0.288541296362129</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.141565435331173</v>
+        <v>0.0460195966573777</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="H33" t="n">
+        <v>0.167701863354037</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.4245</v>
+        <v>0.011</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.009267784322609799</v>
+        <v>9.99589490968802e-05</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0219629576327836</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0075270243429662</v>
+        <v>0.0003750079911563</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.18322363312365</v>
+        <v>0.9087177190625469</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.428445211206309</v>
+        <v>0.0742839124719606</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.73125</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>106.5</v>
+        <v>352</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.110883424408015</v>
+        <v>11.3010563076905</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.25250011507068</v>
+        <v>-0.852495814497261</v>
       </c>
       <c r="M34" t="n">
-        <v>0.977345662603598</v>
+        <v>28.5584982020013</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.104115891462924</v>
+        <v>3.21052736013936</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.053702318165127</v>
+        <v>0.903185281191753</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.358490566037736</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.679245283018868</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>4.3305</v>
+        <v>0.0150501448331416</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0980281284302964</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.237926081611495</v>
+        <v>-0.0003596995216299</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0068257662306411</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.26366766956001</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0008097608192627</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.130718954248366</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.09803921568627449</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0002350386100386</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0001158659575124</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0003437880213462</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.91731016731017</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0078132711198721</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9411764705882349</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.596</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0075230927670042</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0021510063954102</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0120611835236079</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.26226388708124</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0085420723949659</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.585987261146497</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0162305593529278</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0270301653743449</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.0054707042333276</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.204415105200602</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.030340862554385</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.807453416149068</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0050171703296703</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0005385214678471</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0100343406593407</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.802747252747254</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.612147531480701</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.614906832298137</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0011632165605095</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0065580046761234</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.004635677770926</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.127825995660391</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.127175922218054</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0062111801242236</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.608695652173913</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0005017170329669999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0002797393568352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0014558057057709</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.2237000804074</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.361345959960707</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9.125</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0392188532994184</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0912310365085007</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.24386900101507</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.429795652596367</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0187550556921351</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0235280875176719</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0315314629258994</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.02816506491559</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>105</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.28199504442926</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-4.8503109168864</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.88649100298156</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.2209476613612</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0612040949481139</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.711212007667646</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.269124541678017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-1.42666887990942</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4245</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.009267784322609799</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0219629576327836</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0075270243429662</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-2.18322363312365</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.428445211206309</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.110883424408015</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.25250011507068</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.977345662603598</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.104115891462924</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.3305</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0980281284302964</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.237926081611495</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.0068257662306411</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-2.26366766956001</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tiraumea at Ngaturi</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.370401290100003</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.101009402654867</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.981092157277503</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.725119206995046</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.09484450953508659</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1847797</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5516292</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Tiraumea</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_7b</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
+++ b/trend_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.559208963738956</v>
+        <v>0.785285918664853</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.875</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.0778846975393</v>
+        <v>-22.8566958698373</v>
       </c>
       <c r="L2" t="n">
-        <v>-44.8989719661361</v>
+        <v>-71.31223417797121</v>
       </c>
       <c r="M2" t="n">
-        <v>32.7915409726974</v>
+        <v>25.8047330404769</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.43302392933745</v>
+        <v>-15.2377972465582</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.059338799301611</v>
+        <v>0.0001827342094049</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0612244897959184</v>
+        <v>0.0652173913043478</v>
       </c>
       <c r="H3" t="n">
-        <v>0.387755102040816</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0449600048318288</v>
+        <v>-0.101194805194805</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.108136208819921</v>
+        <v>-0.175662513250494</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0.0461612768128628</v>
       </c>
       <c r="N3" t="n">
-        <v>-11.2400012079572</v>
+        <v>-33.7316017316017</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.437759523708583</v>
+        <v>0.622975212642385</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.890909090909091</v>
+        <v>0.945454545454545</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>9.49</v>
+        <v>9.73</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0198775510204077</v>
+        <v>0.0298163265306125</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0785484607335294</v>
+        <v>-0.0574214647196091</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0802751532883644</v>
+        <v>0.106351271121676</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.209457861121262</v>
+        <v>0.30643706609057</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,28 +846,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.28530497045936</v>
+        <v>0.25070860669676</v>
       </c>
       <c r="G5" t="n">
-        <v>0.163636363636364</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="H5" t="n">
-        <v>0.363636363636364</v>
+        <v>0.309090909090909</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0004442521599887</v>
+        <v>-0.0004576845030283</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0016099698581077</v>
+        <v>0.0015473348970626</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.24384386310417</v>
+        <v>0.765434603965341</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.833333333333333</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="K6" t="n">
-        <v>48.7</v>
+        <v>-15.89545884579</v>
       </c>
       <c r="L6" t="n">
-        <v>-35.4154741280047</v>
+        <v>-80.04214917084509</v>
       </c>
       <c r="M6" t="n">
-        <v>251.542848970294</v>
+        <v>38.8562797620434</v>
       </c>
       <c r="N6" t="n">
-        <v>7.609375</v>
+        <v>-4.1830154857342</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,28 +1028,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.565158190033783</v>
+        <v>0.426099608448871</v>
       </c>
       <c r="G7" t="n">
-        <v>0.363636363636364</v>
+        <v>0.345454545454545</v>
       </c>
       <c r="H7" t="n">
         <v>0.672727272727273</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0148045551666606</v>
+        <v>0.0136982935216929</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0010541022704848</v>
+        <v>-0.0002964833021529</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002854581441512</v>
+        <v>0.0010723381638948</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.829452575473029</v>
+        <v>0.999994083142719</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.218181818181818</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0008794141252006</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0006286574870912</v>
+        <v>-0.0011995073891625</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.0005557752707248</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-14.6569020866774</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.285603776026567</v>
+        <v>0.56059310149266</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.963636363636364</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.616</v>
+        <v>0.615</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0109913194444445</v>
+        <v>-0.0015015416238437</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0170257393943888</v>
+        <v>-0.0240662340180128</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0391339285714285</v>
+        <v>0.0211607100072111</v>
       </c>
       <c r="N9" t="n">
-        <v>1.78430510461761</v>
+        <v>-0.244153109568095</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.193764995264352</v>
+        <v>0.144528883734702</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8545454545454541</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>7.84</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0331292517006803</v>
+        <v>-0.0347857142857142</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0885942938642794</v>
+        <v>-0.0834122892518588</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0306357296155179</v>
+        <v>0.0192881534637287</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.422566985978065</v>
+        <v>-0.443695335276967</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.227277037442171</v>
+        <v>0.517372246754257</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.927272727272727</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0106351228389445</v>
+        <v>-0.0005324344023323</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0156189848315564</v>
+        <v>-0.0228583684534018</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0377698399641243</v>
+        <v>0.0185904918509695</v>
       </c>
       <c r="N11" t="n">
-        <v>1.64885625409992</v>
+        <v>-0.08191298497420731</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.532112927081837</v>
+        <v>0.0353771901055718</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.740740740740741</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.496938775510204</v>
+        <v>0.0199726589200274</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.722209233279</v>
+        <v>0.0025747350152739</v>
       </c>
       <c r="M12" t="n">
-        <v>3.0103021978022</v>
+        <v>0.0351201923076923</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.61546723952739</v>
+        <v>2.21918432444748</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.562240476291417</v>
+        <v>0.0494800770097029</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.690909090909091</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.91</v>
+        <v>0.048</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0049660095173351</v>
+        <v>0.0060206043956044</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0393800838627745</v>
+        <v>3.16310593450392e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0295350646584539</v>
+        <v>0.0121145352795078</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.545715331575291</v>
+        <v>12.5429258241758</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1657,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.260249804330023</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.836363636363636</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.048</v>
+        <v>12.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.731498632946001</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0069880526388915</v>
+        <v>-0.532194652891688</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0060125228337387</v>
+        <v>3.35561455957506</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>5.99589043398362</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.685072730478399</v>
+        <v>0.10929350876323</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.7</v>
+        <v>127.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.109326530612245</v>
+        <v>6.29736526061602</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.35889571811468</v>
+        <v>-2.15678022933335</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7756983085849291</v>
+        <v>14.7783615292809</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.743717895321393</v>
+        <v>4.93911000832629</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.173577652364867</v>
+        <v>0.001907672569719</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="H16" t="n">
-        <v>0.721311475409836</v>
+        <v>0.535353535353535</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>130</v>
+        <v>0.36</v>
       </c>
       <c r="K16" t="n">
-        <v>4.19903180617778</v>
+        <v>-0.0249263219664863</v>
       </c>
       <c r="L16" t="n">
-        <v>-3.09925313380419</v>
+        <v>-0.0331182223318398</v>
       </c>
       <c r="M16" t="n">
-        <v>12.5819558208656</v>
+        <v>-0.0094305567530383</v>
       </c>
       <c r="N16" t="n">
-        <v>3.2300244662906</v>
+        <v>-6.92397832402396</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.175311426887046</v>
+        <v>0.638887545735723</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0294117647058824</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.568627450980392</v>
+        <v>0.860869565217391</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4</v>
+        <v>9.49</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.006321416812707</v>
+        <v>0.008174288004330101</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.027101999002368</v>
+        <v>-0.0167315299289372</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0057378059142953</v>
+        <v>0.0362240611807943</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.58035420317677</v>
+        <v>0.0861358061573255</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.073627961991875</v>
+        <v>0.0092399282427062</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="H18" t="n">
-        <v>0.869565217391304</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>9.539999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0199410575731887</v>
+        <v>0.0004989189280381</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0501092797153146</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0021507039811464</v>
+        <v>0.0009990641973699</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.209025760725249</v>
+        <v>4.53562661852821</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,14 +2101,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0001039583444647</v>
+        <v>0.187653104226122</v>
       </c>
       <c r="G19" t="n">
-        <v>0.165217391304348</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.217391304347826</v>
+        <v>0.763157894736842</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.011</v>
+        <v>352</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007981455019491</v>
+        <v>10.6966071428571</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003742594668687</v>
+        <v>-8.481793641337379</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001003434065934</v>
+        <v>44.188363221988</v>
       </c>
       <c r="N19" t="n">
-        <v>7.25586819953759</v>
+        <v>3.0388088474026</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0111538919726396</v>
+        <v>0.0397816050512997</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="H20" t="n">
-        <v>0.728070175438597</v>
+        <v>0.654867256637168</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>357</v>
+        <v>0.0125741919459947</v>
       </c>
       <c r="K20" t="n">
-        <v>36.7925824175824</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>7.91712609129002</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>76.1745679057916</v>
+        <v>0.0008629688464771</v>
       </c>
       <c r="N20" t="n">
-        <v>10.3060454951211</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0197037263644341</v>
+        <v>0.989313530285592</v>
       </c>
       <c r="G21" t="n">
-        <v>0.451327433628319</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H21" t="n">
-        <v>0.610619469026549</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0118391864572181</v>
+        <v>0.006</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.000209552495697</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003983097055616</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0009338643734016</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-3.49254159495123</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.947534565802485</v>
+        <v>0.114712969729217</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008695652173913</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.130434782608696</v>
+        <v>0.939130434782609</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.007</v>
+        <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.000137674330946</v>
+        <v>0.0069232913946883</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003432800751879</v>
+        <v>-0.0023949370876682</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0132931712607458</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.96677615637284</v>
+        <v>1.15388189911472</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.137288938418225</v>
+        <v>0.0002165820816619</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.965217391304348</v>
+        <v>0.7079646017699111</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.615</v>
+        <v>7.89</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0053051580166397</v>
+        <v>-0.0375321127638006</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0031056962777942</v>
+        <v>-0.0543526785714287</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0103469285029636</v>
+        <v>-0.0200686813186809</v>
       </c>
       <c r="N23" t="n">
-        <v>0.862627319778821</v>
+        <v>-0.475692176980997</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0035180953325849</v>
+        <v>0.0506200364352089</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7079646017699111</v>
+        <v>0.817391304347826</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.93</v>
+        <v>0.628</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0309139013328909</v>
+        <v>0.0056107317375247</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0497858883198434</v>
+        <v>-4.68178882440978e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0125331532230489</v>
+        <v>0.0139171936083259</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.389834821347931</v>
+        <v>0.893428620624964</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.137288938418225</v>
+        <v>0.0376391702510054</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.826086956521739</v>
+        <v>0.617391304347826</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.634</v>
+        <v>0.9</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0048955971433285</v>
+        <v>0.0099546015858572</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0024028598749918</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0114629203174363</v>
+        <v>0.0164607144171552</v>
       </c>
       <c r="N25" t="n">
-        <v>0.772176205572326</v>
+        <v>1.10606684287302</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0374384965716841</v>
+        <v>0.0054638578668787</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0526315789473684</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.517543859649123</v>
+        <v>0.678260869565217</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>0.044</v>
       </c>
       <c r="K26" t="n">
-        <v>0.712822014051522</v>
+        <v>0.0024249656593406</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0008524170495199</v>
       </c>
       <c r="M26" t="n">
-        <v>1.50663255477915</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N26" t="n">
-        <v>6.48020012774111</v>
+        <v>5.51128558941058</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.40279998558605</v>
+        <v>0.008712799682728201</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.68695652173913</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.91</v>
+        <v>9.095000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0017497606456926</v>
+        <v>0.46157967032967</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.008323336836446401</v>
+        <v>0.125100223982728</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0100924710240543</v>
+        <v>1.46147649789854</v>
       </c>
       <c r="N27" t="n">
-        <v>0.192281389636556</v>
+        <v>5.07509258196449</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0399950338193785</v>
+        <v>1.36867464635146e-05</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.669565217391304</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.041</v>
+        <v>95</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0015784562409626</v>
+        <v>9.12473233404711</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>5.32314069648751</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0033444938882488</v>
+        <v>13.1260940181552</v>
       </c>
       <c r="N28" t="n">
-        <v>3.84989327064067</v>
+        <v>9.604981404260119</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.101732602076668</v>
+        <v>0.001292464336017</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0258064516129032</v>
       </c>
       <c r="H29" t="n">
-        <v>0.991228070175439</v>
+        <v>0.451612903225806</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>8.59</v>
+        <v>0.4</v>
       </c>
       <c r="K29" t="n">
-        <v>0.182250512645249</v>
+        <v>-0.0144884601738983</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0384547634802306</v>
+        <v>-0.0222036474164134</v>
       </c>
       <c r="M29" t="n">
-        <v>0.66132588720662</v>
+        <v>-0.0064747179454587</v>
       </c>
       <c r="N29" t="n">
-        <v>2.12165905291327</v>
+        <v>-3.62211504347458</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8.65676907025576e-06</v>
+        <v>0.066152249127688</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.666666666666667</v>
+        <v>0.819767441860465</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>95</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>9.361306386258409</v>
+        <v>-0.0179926108374384</v>
       </c>
       <c r="L30" t="n">
-        <v>5.65318729768544</v>
+        <v>-0.0377188040661344</v>
       </c>
       <c r="M30" t="n">
-        <v>13.6773153743584</v>
+        <v>0.0018632238038954</v>
       </c>
       <c r="N30" t="n">
-        <v>9.85400672237728</v>
+        <v>-0.185490833375654</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.034642304360744</v>
+        <v>0.0540565203002617</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0273972602739726</v>
+        <v>0.167630057803468</v>
       </c>
       <c r="H31" t="n">
-        <v>0.465753424657534</v>
+        <v>0.15606936416185</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0.011</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0099482590746222</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0185409363442969</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.000334478021978</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.48706476865556</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.017382850560164</v>
+        <v>0.295860404201699</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8125</v>
+        <v>0.732558139534884</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>9.699999999999999</v>
+        <v>329</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0279885057471265</v>
+        <v>3.17935355207706</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0552970425121417</v>
+        <v>-6.13865546218487</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0096743312718075</v>
+        <v>15.7663268800762</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.288541296362129</v>
+        <v>0.966368860813697</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0460195966573777</v>
+        <v>0.878798678264617</v>
       </c>
       <c r="G33" t="n">
-        <v>0.173913043478261</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="H33" t="n">
-        <v>0.167701863354037</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>0.011</v>
+        <v>0.0150501448331416</v>
       </c>
       <c r="K33" t="n">
-        <v>9.99589490968802e-05</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0002699364998432</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003750079911563</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.9087177190625469</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0742839124719606</v>
+        <v>0.0449292107472525</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="H34" t="n">
-        <v>0.73125</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>352</v>
+        <v>0.006</v>
       </c>
       <c r="K34" t="n">
-        <v>11.3010563076905</v>
+        <v>0.0001015147304057</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.852495814497261</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>28.5584982020013</v>
+        <v>0.0002123017528324</v>
       </c>
       <c r="N34" t="n">
-        <v>3.21052736013936</v>
+        <v>1.69191217342968</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.903185281191753</v>
+        <v>0.0185186757247753</v>
       </c>
       <c r="G35" t="n">
-        <v>0.358490566037736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.679245283018868</v>
+        <v>0.921212121212121</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0150501448331416</v>
+        <v>0.598</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0061816651501364</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0003596995216299</v>
+        <v>0.0013673831868359</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0100895678251835</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.03372326925359</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3659,31 +3659,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0008097608192627</v>
+        <v>0.0021307463893219</v>
       </c>
       <c r="G36" t="n">
-        <v>0.130718954248366</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09803921568627449</v>
+        <v>0.568047337278107</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006</v>
+        <v>7.94</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0002350386100386</v>
+        <v>-0.0168837857958717</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0001158659575124</v>
+        <v>-0.0262671435475776</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0003437880213462</v>
+        <v>-0.0076422731015366</v>
       </c>
       <c r="N36" t="n">
-        <v>3.91731016731017</v>
+        <v>-0.21264213848705</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0078132711198721</v>
+        <v>0.0470257059320749</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9411764705882349</v>
+        <v>0.8092485549132949</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.596</v>
+        <v>0.625</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0075230927670042</v>
+        <v>0.0042476464178162</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0021510063954102</v>
+        <v>7.9671970948976e-05</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0120611835236079</v>
+        <v>0.008469000274280001</v>
       </c>
       <c r="N37" t="n">
-        <v>1.26226388708124</v>
+        <v>0.679623426850599</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0085420723949659</v>
+        <v>0.375568692436647</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.585987261146497</v>
+        <v>0.5895953757225429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.94</v>
+        <v>0.91</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0162305593529278</v>
+        <v>0.0007128220140515</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0270301653743449</v>
+        <v>-0.0038376137516806</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0054707042333276</v>
+        <v>0.0057011777785977</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.204415105200602</v>
+        <v>0.0783320894562113</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3924,35 +3924,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.030340862554385</v>
+        <v>0.0547306299865842</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0057803468208092</v>
       </c>
       <c r="H39" t="n">
-        <v>0.807453416149068</v>
+        <v>0.5895953757225429</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.625</v>
+        <v>0.042</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0050171703296703</v>
+        <v>0.0008152702822837</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0005385214678471</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0100343406593407</v>
+        <v>0.0016723901098901</v>
       </c>
       <c r="N39" t="n">
-        <v>0.802747252747254</v>
+        <v>1.94111971972331</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.612147531480701</v>
+        <v>0.218945135468171</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.614906832298137</v>
+        <v>0.9593023255813951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.91</v>
+        <v>9.125</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0011632165605095</v>
+        <v>0.0653064030574495</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0065580046761234</v>
+        <v>-0.0562485763432953</v>
       </c>
       <c r="M40" t="n">
-        <v>0.004635677770926</v>
+        <v>0.299478190641122</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.127825995660391</v>
+        <v>0.715686608848762</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.127175922218054</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0062111801242236</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.608695652173913</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.041</v>
+        <v>0.392</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0005017170329669999</v>
+        <v>0.0216941213180663</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002797393568352</v>
+        <v>-0.0078476230605194</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0014558057057709</v>
+        <v>0.0315314629258994</v>
       </c>
       <c r="N41" t="n">
-        <v>1.2237000804074</v>
+        <v>5.53421462195569</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.361345959960707</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.9625</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.125</v>
+        <v>106.32</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0392188532994184</v>
+        <v>-0.06765038232795451</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0912310365085007</v>
+        <v>-4.8503109168864</v>
       </c>
       <c r="M42" t="n">
-        <v>0.24386900101507</v>
+        <v>3.15146273991981</v>
       </c>
       <c r="N42" t="n">
-        <v>0.429795652596367</v>
+        <v>-0.0636290277727187</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4263,11 +4259,7 @@
           <t>Mana_7b</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.889664319040077</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.373</v>
+        <v>4.29</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0187550556921351</v>
+        <v>0.282598652013112</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0235280875176719</v>
+        <v>-0.711212007667646</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0315314629258994</v>
+        <v>0.731802601887806</v>
       </c>
       <c r="N43" t="n">
-        <v>5.02816506491559</v>
+        <v>6.58738116580681</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.59675202974633</v>
+        <v>0.105248850027669</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105</v>
+        <v>0.405</v>
       </c>
       <c r="K44" t="n">
-        <v>1.28199504442926</v>
+        <v>-0.009267784322609799</v>
       </c>
       <c r="L44" t="n">
-        <v>-4.8503109168864</v>
+        <v>-0.0219629576327836</v>
       </c>
       <c r="M44" t="n">
-        <v>5.88649100298156</v>
+        <v>0.003564233205817</v>
       </c>
       <c r="N44" t="n">
-        <v>1.2209476613612</v>
+        <v>-2.28834180805182</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.40324797025367</v>
+        <v>0.359173879173944</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.29</v>
+        <v>106.66</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0612040949481139</v>
+        <v>-0.184992463069039</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.711212007667646</v>
+        <v>-1.36774900304642</v>
       </c>
       <c r="M45" t="n">
-        <v>0.269124541678017</v>
+        <v>0.944781796295053</v>
       </c>
       <c r="N45" t="n">
-        <v>-1.42666887990942</v>
+        <v>-0.173441274206862</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.141565435331173</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4245</v>
+        <v>4.3305</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.009267784322609799</v>
+        <v>-0.0065633423180594</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0219629576327836</v>
+        <v>-0.10797935453483</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0075270243429662</v>
+        <v>0.135694459791331</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.18322363312365</v>
+        <v>-0.151560843275822</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,31 +4632,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.428445211206309</v>
+        <v>0.136780705862374</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>106.5</v>
+        <v>0.408</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.110883424408015</v>
+        <v>-0.0053534983407079</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.25250011507068</v>
+        <v>-0.0118720698842511</v>
       </c>
       <c r="M47" t="n">
-        <v>0.977345662603598</v>
+        <v>0.0035046112667274</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.104115891462924</v>
+        <v>-1.31213194625195</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4665,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.053702318165127</v>
+        <v>0.382609514613013</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.3305</v>
+        <v>106.32</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0980281284302964</v>
+        <v>-0.101009402654867</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.237926081611495</v>
+        <v>-0.756254280545209</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0068257662306411</v>
+        <v>0.683034923565736</v>
       </c>
       <c r="N48" t="n">
-        <v>-2.26366766956001</v>
+        <v>-0.0950050815038255</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.370401290100003</v>
+        <v>0.136780705862374</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>106.5</v>
+        <v>4.6</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.101009402654867</v>
+        <v>-0.0283469150174622</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.981092157277503</v>
+        <v>-0.09500434910326459</v>
       </c>
       <c r="M49" t="n">
-        <v>0.725119206995046</v>
+        <v>0.0292469696877524</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.09484450953508659</v>
+        <v>-0.616237282988309</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4839,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">

--- a/trend_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
+++ b/trend_results/Rivers/TiraumeaatNgaturi_f06bb9bd72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -88,45 +88,45 @@
     <t>Tiraumea at Ngaturi</t>
   </si>
   <si>
+    <t>Visual Clarity</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
-    <t>Visual Clarity</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -139,51 +139,51 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
     <t>Tararua District</t>
   </si>
   <si>
@@ -196,22 +196,22 @@
     <t>Mana_7b</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>mg/m2</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,37 +663,37 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.785285918664853</v>
+        <v>0.001396174561136</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H2">
-        <v>0.9090909090909089</v>
+        <v>0.6052631578947369</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
-        <v>-22.8566958698373</v>
+        <v>-0.0782678571428571</v>
       </c>
       <c r="L2">
-        <v>-71.31223417797121</v>
+        <v>-0.148726679324037</v>
       </c>
       <c r="M2">
-        <v>25.8047330404769</v>
+        <v>-0.0282957041624317</v>
       </c>
       <c r="N2">
-        <v>-15.2377972465582</v>
+        <v>-39.1339285714286</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <v>1847797</v>
@@ -728,43 +728,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.0001827342094049</v>
+        <v>0.992566237724625</v>
       </c>
       <c r="G3">
-        <v>0.0652173913043478</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.456521739130435</v>
+        <v>0.890909090909091</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="K3">
-        <v>-0.101194805194805</v>
+        <v>0.103688186813187</v>
       </c>
       <c r="L3">
-        <v>-0.175662513250494</v>
+        <v>0.0398899466326563</v>
       </c>
       <c r="M3">
-        <v>-0.0461612768128628</v>
+        <v>0.163558291334816</v>
       </c>
       <c r="N3">
-        <v>-33.7316017316017</v>
+        <v>1.04947557503226</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>1847797</v>
@@ -802,40 +802,40 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>0.622975212642385</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.945454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.73</v>
+        <v>0.011</v>
       </c>
       <c r="K4">
-        <v>0.0298163265306125</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0574214647196091</v>
+        <v>-0.0014780156907212</v>
       </c>
       <c r="M4">
-        <v>0.106351271121676</v>
+        <v>0.0010013731488571</v>
       </c>
       <c r="N4">
-        <v>0.30643706609057</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1847797</v>
@@ -870,43 +870,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.25070860669676</v>
+        <v>0.771817376883971</v>
       </c>
       <c r="G5">
-        <v>0.181818181818182</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.309090909090909</v>
+        <v>0.886792452830189</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.012</v>
+        <v>273.2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-14.1484203296703</v>
       </c>
       <c r="L5">
-        <v>-0.0004576845030283</v>
+        <v>-146.040864371754</v>
       </c>
       <c r="M5">
-        <v>0.0015473348970626</v>
+        <v>8.77242072167671</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-5.17877757308577</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1847797</v>
@@ -944,40 +944,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>0.765434603965341</v>
+        <v>0.684846503325643</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="H6">
-        <v>0.814814814814815</v>
+        <v>0.685185185185185</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>380</v>
+        <v>0.0141334845737305</v>
       </c>
       <c r="K6">
-        <v>-15.89545884579</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-80.04214917084509</v>
+        <v>-0.0019193326369422</v>
       </c>
       <c r="M6">
-        <v>38.8562797620434</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-4.1830154857342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1847797</v>
@@ -998,7 +998,7 @@
         <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1015,40 +1015,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.426099608448871</v>
+        <v>0.999999975605705</v>
       </c>
       <c r="G7">
-        <v>0.345454545454545</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.672727272727273</v>
+        <v>0.2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0136982935216929</v>
+        <v>0.005</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0.0011595238095238</v>
       </c>
       <c r="L7">
-        <v>-0.0002964833021529</v>
+        <v>-0.0015051510989011</v>
       </c>
       <c r="M7">
-        <v>0.0010723381638948</v>
+        <v>-0.000828231292517</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-23.1904761904762</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1847797</v>
@@ -1069,7 +1069,7 @@
         <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,43 +1083,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.999994083142719</v>
+        <v>0.173631212243791</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.181818181818182</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.006</v>
+        <v>0.616</v>
       </c>
       <c r="K8">
-        <v>-0.0008794141252006</v>
+        <v>0.0178969979296066</v>
       </c>
       <c r="L8">
-        <v>-0.0011995073891625</v>
+        <v>-0.0197342134680003</v>
       </c>
       <c r="M8">
-        <v>-0.0005557752707248</v>
+        <v>0.04706307220766</v>
       </c>
       <c r="N8">
-        <v>-14.6569020866774</v>
+        <v>2.90535680675432</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1847797</v>
@@ -1140,7 +1140,7 @@
         <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,37 +1160,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.56059310149266</v>
+        <v>0.919456284857136</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.927272727272727</v>
+        <v>0.836363636363636</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.615</v>
+        <v>7.87</v>
       </c>
       <c r="K9">
-        <v>-0.0015015416238437</v>
+        <v>0.0507291666666669</v>
       </c>
       <c r="L9">
-        <v>-0.0240662340180128</v>
+        <v>-0.0087182366850328</v>
       </c>
       <c r="M9">
-        <v>0.0211607100072111</v>
+        <v>0.0976400013358753</v>
       </c>
       <c r="N9">
-        <v>-0.244153109568095</v>
+        <v>0.644589157136809</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1847797</v>
@@ -1209,9 +1209,6 @@
       </c>
       <c r="V9" t="s">
         <v>59</v>
-      </c>
-      <c r="W9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,40 +1222,40 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.144528883734702</v>
+        <v>0.167557259263489</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.836363636363636</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.84</v>
+        <v>0.638</v>
       </c>
       <c r="K10">
-        <v>-0.0347857142857142</v>
+        <v>0.0158804347826087</v>
       </c>
       <c r="L10">
-        <v>-0.0834122892518588</v>
+        <v>-0.0216005657108521</v>
       </c>
       <c r="M10">
-        <v>0.0192881534637287</v>
+        <v>0.0362690532455713</v>
       </c>
       <c r="N10">
-        <v>-0.443695335276967</v>
+        <v>2.48909636091046</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
         <v>50</v>
@@ -1281,6 +1278,9 @@
       <c r="V10" t="s">
         <v>59</v>
       </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
@@ -1293,43 +1293,43 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.517372246754257</v>
+        <v>0.0414729813018984</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.963636363636364</v>
+        <v>0.654545454545455</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
       <c r="K11">
-        <v>-0.0005324344023323</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="L11">
-        <v>-0.0228583684534018</v>
+        <v>0.0003239767794423</v>
       </c>
       <c r="M11">
-        <v>0.0185904918509695</v>
+        <v>0.0350261345330155</v>
       </c>
       <c r="N11">
-        <v>-0.08191298497420731</v>
+        <v>2.18137840420449</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>1847797</v>
@@ -1350,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,37 +1370,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0353771901055718</v>
+        <v>0.622975212642385</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.654545454545455</v>
+        <v>0.781818181818182</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9</v>
+        <v>0.046</v>
       </c>
       <c r="K12">
-        <v>0.0199726589200274</v>
+        <v>-0.001337912087912</v>
       </c>
       <c r="L12">
-        <v>0.0025747350152739</v>
+        <v>-0.0070240598622204</v>
       </c>
       <c r="M12">
-        <v>0.0351201923076923</v>
+        <v>0.0030061730156434</v>
       </c>
       <c r="N12">
-        <v>2.21918432444748</v>
+        <v>-2.90850453893932</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1847797</v>
@@ -1421,7 +1421,7 @@
         <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1441,37 +1441,37 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0494800770097029</v>
+        <v>0.739750195669977</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.818181818181818</v>
+        <v>0.981481481481482</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.048</v>
+        <v>8.824999999999999</v>
       </c>
       <c r="K13">
-        <v>0.0060206043956044</v>
+        <v>-0.239011520737327</v>
       </c>
       <c r="L13">
-        <v>3.16310593450392E-05</v>
+        <v>-2.21092207555234</v>
       </c>
       <c r="M13">
-        <v>0.0121145352795078</v>
+        <v>0.269425040164372</v>
       </c>
       <c r="N13">
-        <v>12.5429258241758</v>
+        <v>-2.70834584404903</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1847797</v>
@@ -1492,7 +1492,7 @@
         <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1503,46 +1503,46 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.260249804330023</v>
+        <v>0.172963993724785</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.2</v>
+        <v>125</v>
       </c>
       <c r="K14">
-        <v>0.731498632946001</v>
+        <v>6.19552736115236</v>
       </c>
       <c r="L14">
-        <v>-0.532194652891688</v>
+        <v>-3.81251904584594</v>
       </c>
       <c r="M14">
-        <v>3.35561455957506</v>
+        <v>16.0747590208735</v>
       </c>
       <c r="N14">
-        <v>5.99589043398362</v>
+        <v>4.95642188892189</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1847797</v>
@@ -1577,43 +1577,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>0.10929350876323</v>
+        <v>0.001087609560923</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0326086956521739</v>
       </c>
       <c r="H15">
-        <v>0.803571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>127.5</v>
+        <v>0.335</v>
       </c>
       <c r="K15">
-        <v>6.29736526061602</v>
+        <v>-0.0253387607794113</v>
       </c>
       <c r="L15">
-        <v>-2.15678022933335</v>
+        <v>-0.0363666976321839</v>
       </c>
       <c r="M15">
-        <v>14.7783615292809</v>
+        <v>-0.0123304512128021</v>
       </c>
       <c r="N15">
-        <v>4.93911000832629</v>
+        <v>-7.56380918788398</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q15">
         <v>1847797</v>
@@ -1654,37 +1654,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.001907672569719</v>
+        <v>0.926372038008125</v>
       </c>
       <c r="G16">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.535353535353535</v>
+        <v>0.852173913043478</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.36</v>
+        <v>9.6</v>
       </c>
       <c r="K16">
-        <v>-0.0249263219664863</v>
+        <v>0.0334212997508061</v>
       </c>
       <c r="L16">
-        <v>-0.0331182223318398</v>
+        <v>-0.0022968930196669</v>
       </c>
       <c r="M16">
-        <v>-0.0094305567530383</v>
+        <v>0.054820933731197</v>
       </c>
       <c r="N16">
-        <v>-6.92397832402396</v>
+        <v>0.348138539070897</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q16">
         <v>1847797</v>
@@ -1722,40 +1722,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>0.638887545735723</v>
+        <v>0.250860839520248</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.147826086956522</v>
       </c>
       <c r="H17">
-        <v>0.860869565217391</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>9.49</v>
+        <v>0.011</v>
       </c>
       <c r="K17">
-        <v>0.008174288004330101</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>-0.0167315299289372</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0362240611807943</v>
+        <v>0.0004620902652943</v>
       </c>
       <c r="N17">
-        <v>0.0861358061573255</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q17">
         <v>1847797</v>
@@ -1790,43 +1790,43 @@
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.0092399282427062</v>
+        <v>0.492080550285483</v>
       </c>
       <c r="G18">
-        <v>0.147826086956522</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.217391304347826</v>
+        <v>0.769911504424779</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.011</v>
+        <v>290</v>
       </c>
       <c r="K18">
-        <v>0.0004989189280381</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-15.6521121090563</v>
       </c>
       <c r="M18">
-        <v>0.0009990641973699</v>
+        <v>19.0266772510617</v>
       </c>
       <c r="N18">
-        <v>4.53562661852821</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1847797</v>
@@ -1864,40 +1864,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19">
-        <v>0.187653104226122</v>
+        <v>0.156253618939322</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.37719298245614</v>
       </c>
       <c r="H19">
-        <v>0.763157894736842</v>
+        <v>0.692982456140351</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>352</v>
+        <v>0.0135457851087967</v>
       </c>
       <c r="K19">
-        <v>10.6966071428571</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-8.481793641337379</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>44.188363221988</v>
+        <v>0.0005741530048875</v>
       </c>
       <c r="N19">
-        <v>3.0388088474026</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1847797</v>
@@ -1918,7 +1918,7 @@
         <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,40 +1935,40 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
-        <v>0.0397816050512997</v>
+        <v>0.999998099585607</v>
       </c>
       <c r="G20">
-        <v>0.415929203539823</v>
+        <v>0.008695652173913</v>
       </c>
       <c r="H20">
-        <v>0.654867256637168</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0.0125741919459947</v>
+        <v>0.006</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-0.0004801709027169</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-0.0006363240418118</v>
       </c>
       <c r="M20">
-        <v>0.0008629688464771</v>
+        <v>-0.0003170395561106</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-8.00284837861525</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q20">
         <v>1847797</v>
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,40 +2003,40 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.989313530285592</v>
+        <v>0.0357130835071852</v>
       </c>
       <c r="G21">
-        <v>0.008695652173913</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.130434782608696</v>
+        <v>0.9304347826086961</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.006</v>
+        <v>0.615</v>
       </c>
       <c r="K21">
-        <v>-0.000209552495697</v>
+        <v>0.008868433404591499</v>
       </c>
       <c r="L21">
-        <v>-0.0003983097055616</v>
+        <v>0.0009208889931628</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.015065643966744</v>
       </c>
       <c r="N21">
-        <v>-3.49254159495123</v>
+        <v>1.4420216918035</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
         <v>52</v>
@@ -2060,7 +2060,7 @@
         <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,43 +2074,43 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.114712969729217</v>
+        <v>0.0457584552771479</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.939130434782609</v>
+        <v>0.669565217391304</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6</v>
+        <v>7.93</v>
       </c>
       <c r="K22">
-        <v>0.0069232913946883</v>
+        <v>-0.0183375171154723</v>
       </c>
       <c r="L22">
-        <v>-0.0023949370876682</v>
+        <v>-0.0366388538077362</v>
       </c>
       <c r="M22">
-        <v>0.0132931712607458</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.15388189911472</v>
+        <v>-0.231242334369134</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1847797</v>
@@ -2129,9 +2129,6 @@
       </c>
       <c r="V22" t="s">
         <v>59</v>
-      </c>
-      <c r="W22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,43 +2142,43 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.0002165820816619</v>
+        <v>0.0217452106436583</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.7079646017699111</v>
+        <v>0.798245614035088</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.89</v>
+        <v>0.6345</v>
       </c>
       <c r="K23">
-        <v>-0.0375321127638006</v>
+        <v>0.0087963875205254</v>
       </c>
       <c r="L23">
-        <v>-0.0543526785714287</v>
+        <v>0.0009678212660075</v>
       </c>
       <c r="M23">
-        <v>-0.0200686813186809</v>
+        <v>0.0158804347826087</v>
       </c>
       <c r="N23">
-        <v>-0.475692176980997</v>
+        <v>1.38634949102056</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1847797</v>
@@ -2200,6 +2197,9 @@
       </c>
       <c r="V23" t="s">
         <v>59</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,37 +2219,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0506200364352089</v>
+        <v>0.0099608087192111</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.817391304347826</v>
+        <v>0.539130434782609</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.628</v>
+        <v>0.91</v>
       </c>
       <c r="K24">
-        <v>0.0056107317375247</v>
+        <v>0.0115528641453518</v>
       </c>
       <c r="L24">
-        <v>-4.68178882440978E-05</v>
+        <v>0.0033444512860162</v>
       </c>
       <c r="M24">
-        <v>0.0139171936083259</v>
+        <v>0.0178088264989015</v>
       </c>
       <c r="N24">
-        <v>0.893428620624964</v>
+        <v>1.26954551047822</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1847797</v>
@@ -2270,7 +2270,7 @@
         <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,37 +2290,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0376391702510054</v>
+        <v>0.221852916511809</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.617391304347826</v>
+        <v>0.678260869565217</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9</v>
+        <v>0.041</v>
       </c>
       <c r="K25">
-        <v>0.0099546015858572</v>
+        <v>0.0005296159860799</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-0.0008308689717925</v>
       </c>
       <c r="M25">
-        <v>0.0164607144171552</v>
+        <v>0.0023516235804186</v>
       </c>
       <c r="N25">
-        <v>1.10606684287302</v>
+        <v>1.29174630751197</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1847797</v>
@@ -2341,7 +2341,7 @@
         <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,37 +2361,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0054638578668787</v>
+        <v>0.0607863203514337</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.678260869565217</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.044</v>
+        <v>8.59</v>
       </c>
       <c r="K26">
-        <v>0.0024249656593406</v>
+        <v>0.146700136923779</v>
       </c>
       <c r="L26">
-        <v>0.0008524170495199</v>
+        <v>-0.0129777044226009</v>
       </c>
       <c r="M26">
-        <v>0.0050171703296703</v>
+        <v>0.544553986039372</v>
       </c>
       <c r="N26">
-        <v>5.51128558941058</v>
+        <v>1.70780136116157</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q26">
         <v>1847797</v>
@@ -2412,7 +2412,7 @@
         <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2423,43 +2423,43 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.008712799682728201</v>
+        <v>3.83210905153952E-05</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.982456140350877</v>
+        <v>0.659340659340659</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>9.095000000000001</v>
+        <v>95</v>
       </c>
       <c r="K27">
-        <v>0.46157967032967</v>
+        <v>9.51171875</v>
       </c>
       <c r="L27">
-        <v>0.125100223982728</v>
+        <v>5.43526785714286</v>
       </c>
       <c r="M27">
-        <v>1.46147649789854</v>
+        <v>14.0870975354055</v>
       </c>
       <c r="N27">
-        <v>5.07509258196449</v>
+        <v>10.0123355263158</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
         <v>45</v>
@@ -2497,40 +2497,40 @@
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28">
-        <v>1.36867464635146E-05</v>
+        <v>0.0009674616017689</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.0201342281879195</v>
       </c>
       <c r="H28">
-        <v>0.673469387755102</v>
+        <v>0.476510067114094</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>95</v>
+        <v>0.36</v>
       </c>
       <c r="K28">
-        <v>9.12473233404711</v>
+        <v>-0.0136386078893182</v>
       </c>
       <c r="L28">
-        <v>5.32314069648751</v>
+        <v>-0.0211729654565117</v>
       </c>
       <c r="M28">
-        <v>13.1260940181552</v>
+        <v>-0.0062465000849306</v>
       </c>
       <c r="N28">
-        <v>9.604981404260119</v>
+        <v>-3.78850219147728</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
         <v>45</v>
@@ -2574,37 +2574,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.001292464336017</v>
+        <v>0.588805404578163</v>
       </c>
       <c r="G29">
-        <v>0.0258064516129032</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.451612903225806</v>
+        <v>0.798850574712644</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K29">
-        <v>-0.0144884601738983</v>
+        <v>0.0039983579638752</v>
       </c>
       <c r="L29">
-        <v>-0.0222036474164134</v>
+        <v>-0.0137161163090291</v>
       </c>
       <c r="M29">
-        <v>-0.0064747179454587</v>
+        <v>0.0213846604215457</v>
       </c>
       <c r="N29">
-        <v>-3.62211504347458</v>
+        <v>0.0412201851945898</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>1847797</v>
@@ -2642,40 +2642,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F30">
-        <v>0.066152249127688</v>
+        <v>0.202121432756528</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H30">
-        <v>0.819767441860465</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>9.699999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="K30">
-        <v>-0.0179926108374384</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0377188040661344</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0018632238038954</v>
+        <v>0.0002197470819531</v>
       </c>
       <c r="N30">
-        <v>-0.185490833375654</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q30">
         <v>1847797</v>
@@ -2710,43 +2710,43 @@
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0540565203002617</v>
+        <v>0.361983366436533</v>
       </c>
       <c r="G31">
-        <v>0.167630057803468</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.15606936416185</v>
+        <v>0.734104046242775</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.011</v>
+        <v>290</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.74378363773295</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-6.1984796380784</v>
       </c>
       <c r="M31">
-        <v>0.000334478021978</v>
+        <v>12.8054817539979</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.601304702666536</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1847797</v>
@@ -2781,40 +2781,40 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>0.295860404201699</v>
+        <v>0.51259887508487</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.354651162790698</v>
       </c>
       <c r="H32">
-        <v>0.732558139534884</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J32">
-        <v>329</v>
+        <v>0.0149127632034172</v>
       </c>
       <c r="K32">
-        <v>3.17935355207706</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>-6.13865546218487</v>
+        <v>-2.96119249948502E-05</v>
       </c>
       <c r="M32">
-        <v>15.7663268800762</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0.966368860813697</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
         <v>47</v>
@@ -2838,7 +2838,7 @@
         <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,40 +2855,40 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F33">
-        <v>0.878798678264617</v>
+        <v>0.331524563327626</v>
       </c>
       <c r="G33">
-        <v>0.350877192982456</v>
+        <v>0.108571428571429</v>
       </c>
       <c r="H33">
-        <v>0.684210526315789</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="I33">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>0.0150501448331416</v>
+        <v>0.006</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>-0.0002699364998432</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.0001060540069686</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q33">
         <v>1847797</v>
@@ -2909,7 +2909,7 @@
         <v>59</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2923,43 +2923,43 @@
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.0449292107472525</v>
+        <v>0.003006665943529</v>
       </c>
       <c r="G34">
-        <v>0.121212121212121</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>0.0909090909090909</v>
+        <v>0.92</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.006</v>
+        <v>0.598</v>
       </c>
       <c r="K34">
-        <v>0.0001015147304057</v>
+        <v>0.0074133489461358</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>0.0028364882855742</v>
       </c>
       <c r="M34">
-        <v>0.0002123017528324</v>
+        <v>0.0112081060568864</v>
       </c>
       <c r="N34">
-        <v>1.69191217342968</v>
+        <v>1.23969045922004</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1847797</v>
@@ -2980,7 +2980,7 @@
         <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,43 +2994,43 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.0185186757247753</v>
+        <v>0.030921574927245</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.921212121212121</v>
+        <v>0.552325581395349</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.598</v>
+        <v>7.945</v>
       </c>
       <c r="K35">
-        <v>0.0061816651501364</v>
+        <v>-0.0107433863708312</v>
       </c>
       <c r="L35">
-        <v>0.0013673831868359</v>
+        <v>-0.0194846810458982</v>
       </c>
       <c r="M35">
-        <v>0.0100895678251835</v>
+        <v>-0.0011152095270568</v>
       </c>
       <c r="N35">
-        <v>1.03372326925359</v>
+        <v>-0.135221980753067</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q35">
         <v>1847797</v>
@@ -3049,9 +3049,6 @@
       </c>
       <c r="V35" t="s">
         <v>59</v>
-      </c>
-      <c r="W35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3065,43 +3062,43 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.0021307463893219</v>
+        <v>0.0038443901106042</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.568047337278107</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.94</v>
+        <v>0.624</v>
       </c>
       <c r="K36">
-        <v>-0.0168837857958717</v>
+        <v>0.006597290640394</v>
       </c>
       <c r="L36">
-        <v>-0.0262671435475776</v>
+        <v>0.0029908410442187</v>
       </c>
       <c r="M36">
-        <v>-0.0076422731015366</v>
+        <v>0.0106949756037538</v>
       </c>
       <c r="N36">
-        <v>-0.21264213848705</v>
+        <v>1.05725811544777</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1847797</v>
@@ -3120,6 +3117,9 @@
       </c>
       <c r="V36" t="s">
         <v>59</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,37 +3139,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0470257059320749</v>
+        <v>0.256508539533287</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.8092485549132949</v>
+        <v>0.577142857142857</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.625</v>
+        <v>0.92</v>
       </c>
       <c r="K37">
-        <v>0.0042476464178162</v>
+        <v>0.0021031669865642</v>
       </c>
       <c r="L37">
-        <v>7.9671970948976E-05</v>
+        <v>-0.00316132172852</v>
       </c>
       <c r="M37">
-        <v>0.008469000274280001</v>
+        <v>0.0062324267949035</v>
       </c>
       <c r="N37">
-        <v>0.679623426850599</v>
+        <v>0.228605107235249</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q37">
         <v>1847797</v>
@@ -3190,7 +3190,7 @@
         <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,37 +3210,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.375568692436647</v>
+        <v>0.576618158352319</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H38">
-        <v>0.5895953757225429</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0.91</v>
+        <v>0.041</v>
       </c>
       <c r="K38">
-        <v>0.0007128220140515</v>
+        <v>-0.0001667047010497</v>
       </c>
       <c r="L38">
-        <v>-0.0038376137516806</v>
+        <v>-0.000799671592775</v>
       </c>
       <c r="M38">
-        <v>0.0057011777785977</v>
+        <v>0.0008254139047802</v>
       </c>
       <c r="N38">
-        <v>0.0783320894562113</v>
+        <v>-0.406596831828656</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1847797</v>
@@ -3261,7 +3261,7 @@
         <v>59</v>
       </c>
       <c r="W38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,40 +3278,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.0547306299865842</v>
+        <v>0.600459211636167</v>
       </c>
       <c r="G39">
-        <v>0.0057803468208092</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.5895953757225429</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.042</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="K39">
-        <v>0.0008152702822837</v>
+        <v>-0.0162667009249743</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.114755045163782</v>
       </c>
       <c r="M39">
-        <v>0.0016723901098901</v>
+        <v>0.136018648884469</v>
       </c>
       <c r="N39">
-        <v>1.94111971972331</v>
+        <v>-0.180140652546781</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q39">
         <v>1847797</v>
@@ -3332,7 +3332,7 @@
         <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3340,46 +3340,46 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.218945135468171</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.9593023255813951</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>9.125</v>
+        <v>0.392</v>
       </c>
       <c r="K40">
-        <v>0.0653064030574495</v>
+        <v>-0.0047906140943517</v>
       </c>
       <c r="L40">
-        <v>-0.0562485763432953</v>
+        <v>-0.0535333178189508</v>
       </c>
       <c r="M40">
-        <v>0.299478190641122</v>
+        <v>0.0176148934288863</v>
       </c>
       <c r="N40">
-        <v>0.715686608848762</v>
+        <v>-1.2220954322326</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
         <v>47</v>
@@ -3402,16 +3402,13 @@
       <c r="V40" t="s">
         <v>59</v>
       </c>
-      <c r="W40" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3423,7 +3420,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.889664319040077</v>
+        <v>0.04320536648685</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3435,25 +3432,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.392</v>
+        <v>106.32</v>
       </c>
       <c r="K41">
-        <v>0.0216941213180663</v>
+        <v>-2.47544129300667</v>
       </c>
       <c r="L41">
-        <v>-0.0078476230605194</v>
+        <v>-5.06695912396737</v>
       </c>
       <c r="M41">
-        <v>0.0315314629258994</v>
+        <v>-1.19451942868807</v>
       </c>
       <c r="N41">
-        <v>5.53421462195569</v>
+        <v>-2.32829316497994</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q41">
         <v>1847797</v>
@@ -3479,7 +3476,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -3491,7 +3488,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3503,22 +3500,22 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>106.32</v>
+        <v>3.991</v>
       </c>
       <c r="K42">
-        <v>-0.06765038232795451</v>
+        <v>0.0550876500144592</v>
       </c>
       <c r="L42">
-        <v>-4.8503109168864</v>
+        <v>-1.39898626540364</v>
       </c>
       <c r="M42">
-        <v>3.15146273991981</v>
+        <v>0.731802601887806</v>
       </c>
       <c r="N42">
-        <v>-0.0636290277727187</v>
+        <v>1.38029691842794</v>
       </c>
       <c r="O42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
         <v>48</v>
@@ -3547,10 +3544,10 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -3559,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.768783636774762</v>
+        <v>0.07620314197837499</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3571,25 +3568,25 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>4.29</v>
+        <v>0.396</v>
       </c>
       <c r="K43">
-        <v>0.282598652013112</v>
+        <v>-0.0130093552750225</v>
       </c>
       <c r="L43">
-        <v>-0.711212007667646</v>
+        <v>-0.0257831611682064</v>
       </c>
       <c r="M43">
-        <v>0.731802601887806</v>
+        <v>-0.0007015567453782</v>
       </c>
       <c r="N43">
-        <v>6.58738116580681</v>
+        <v>-3.28519072601579</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>1847797</v>
@@ -3615,7 +3612,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -3627,37 +3624,37 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.105248850027669</v>
+        <v>0.294253177635855</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.405</v>
+        <v>105.66</v>
       </c>
       <c r="K44">
-        <v>-0.009267784322609799</v>
+        <v>-0.266620472008781</v>
       </c>
       <c r="L44">
-        <v>-0.0219629576327836</v>
+        <v>-1.36774900304642</v>
       </c>
       <c r="M44">
-        <v>0.003564233205817</v>
+        <v>0.919680832495683</v>
       </c>
       <c r="N44">
-        <v>-2.28834180805182</v>
+        <v>-0.252338133644502</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q44">
         <v>1847797</v>
@@ -3683,7 +3680,7 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -3695,37 +3692,37 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.359173879173944</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>106.66</v>
+        <v>4.31</v>
       </c>
       <c r="K45">
-        <v>-0.184992463069039</v>
+        <v>-0.0100619834710742</v>
       </c>
       <c r="L45">
-        <v>-1.36774900304642</v>
+        <v>-0.140345666709379</v>
       </c>
       <c r="M45">
-        <v>0.944781796295053</v>
+        <v>0.113886822026617</v>
       </c>
       <c r="N45">
-        <v>-0.173441274206862</v>
+        <v>-0.233456693064366</v>
       </c>
       <c r="O45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q45">
         <v>1847797</v>
@@ -3751,10 +3748,10 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -3763,7 +3760,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.056643604111177</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3775,25 +3772,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>4.3305</v>
+        <v>0.406</v>
       </c>
       <c r="K46">
-        <v>-0.0065633423180594</v>
+        <v>-0.0064478193146417</v>
       </c>
       <c r="L46">
-        <v>-0.10797935453483</v>
+        <v>-0.013027965755863</v>
       </c>
       <c r="M46">
-        <v>0.135694459791331</v>
+        <v>-0.0002483005402559</v>
       </c>
       <c r="N46">
-        <v>-0.151560843275822</v>
+        <v>-1.58813283611866</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q46">
         <v>1847797</v>
@@ -3819,7 +3816,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>15</v>
@@ -3831,37 +3828,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.136780705862374</v>
+        <v>0.081715118235531</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.408</v>
+        <v>106.32</v>
       </c>
       <c r="K47">
-        <v>-0.0053534983407079</v>
+        <v>-0.332347588717015</v>
       </c>
       <c r="L47">
-        <v>-0.0118720698842511</v>
+        <v>-1.00063761482381</v>
       </c>
       <c r="M47">
-        <v>0.0035046112667274</v>
+        <v>0.00074591593437</v>
       </c>
       <c r="N47">
-        <v>-1.31213194625195</v>
+        <v>-0.312591787732332</v>
       </c>
       <c r="O47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q47">
         <v>1847797</v>
@@ -3887,7 +3884,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -3899,37 +3896,37 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.382609514613013</v>
+        <v>0.068822922759132</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>106.32</v>
+        <v>4.5</v>
       </c>
       <c r="K48">
-        <v>-0.101009402654867</v>
+        <v>-0.0449077868852458</v>
       </c>
       <c r="L48">
-        <v>-0.756254280545209</v>
+        <v>-0.08906999741333931</v>
       </c>
       <c r="M48">
-        <v>0.683034923565736</v>
+        <v>0.009412249428953599</v>
       </c>
       <c r="N48">
-        <v>-0.0950050815038255</v>
+        <v>-0.99795081967213</v>
       </c>
       <c r="O48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>1847797</v>
@@ -3947,74 +3944,6 @@
         <v>58</v>
       </c>
       <c r="V48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49">
-        <v>0.136780705862374</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>4.6</v>
-      </c>
-      <c r="K49">
-        <v>-0.0283469150174622</v>
-      </c>
-      <c r="L49">
-        <v>-0.09500434910326459</v>
-      </c>
-      <c r="M49">
-        <v>0.0292469696877524</v>
-      </c>
-      <c r="N49">
-        <v>-0.616237282988309</v>
-      </c>
-      <c r="O49" t="s">
-        <v>43</v>
-      </c>
-      <c r="P49" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q49">
-        <v>1847797</v>
-      </c>
-      <c r="R49">
-        <v>5516292</v>
-      </c>
-      <c r="S49" t="s">
-        <v>56</v>
-      </c>
-      <c r="T49" t="s">
-        <v>57</v>
-      </c>
-      <c r="U49" t="s">
-        <v>58</v>
-      </c>
-      <c r="V49" t="s">
         <v>59</v>
       </c>
     </row>
